--- a/记录-last也可以统计消除best在val上的随机偏差.xlsx
+++ b/记录-last也可以统计消除best在val上的随机偏差.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22020" windowHeight="11220"/>
+    <workbookView windowWidth="28785" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="目标检测" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>模型名称</t>
   </si>
@@ -170,13 +170,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>0.925//</t>
     </r>
     <r>
@@ -226,13 +219,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>94//9231//95//93//94//9264//94//</t>
     </r>
     <r>
@@ -254,13 +240,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>92//</t>
     </r>
     <r>
@@ -285,14 +264,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>96//9352//95//94//</t>
+      <t>96//9352//95//94//9233</t>
     </r>
     <r>
       <rPr>
@@ -302,7 +274,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9233//9128</t>
+      <t>//9128</t>
     </r>
   </si>
   <si>
@@ -313,6 +285,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>95//</t>
     </r>
     <r>
@@ -384,6 +363,89 @@
   <si>
     <t>ciou</t>
   </si>
+  <si>
+    <t>94//8931</t>
+  </si>
+  <si>
+    <t>ciou+focal loss</t>
+  </si>
+  <si>
+    <t>ciou+高范围HSV</t>
+  </si>
+  <si>
+    <t>91//947//918//96</t>
+  </si>
+  <si>
+    <t>Ciou+mosaic</t>
+  </si>
+  <si>
+    <t>89//91//92//949//945</t>
+  </si>
+  <si>
+    <t>Ciou+翻转</t>
+  </si>
+  <si>
+    <t>922//921</t>
+  </si>
+  <si>
+    <t>926//922</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>925//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9505</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//93</t>
+    </r>
+  </si>
+  <si>
+    <t>Ciou+翻转+mosaic+低范围HSV</t>
+  </si>
+  <si>
+    <t>Ciou+翻转+mosaic+HSV+focal loss</t>
+  </si>
+  <si>
+    <t>efdet全系列</t>
+  </si>
+  <si>
+    <t>见文件</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Ciou+翻转+mixup</t>
+  </si>
+  <si>
+    <t>Ciou+翻转+mosaic+低范围HSV+softNMS/weightedNMS</t>
+  </si>
+  <si>
+    <t>Ciou+翻转+mosaic+低范围HSV+TTA</t>
+  </si>
 </sst>
 </file>
 
@@ -433,23 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,30 +510,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,8 +541,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,6 +581,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,9 +610,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +668,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +722,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,19 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,61 +788,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,31 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,19 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,17 +870,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -841,17 +892,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,6 +913,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -887,10 +949,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,16 +961,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,119 +979,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1058,6 +1120,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,10 +1473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD59"/>
+  <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18208,29 +18273,29 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:9">
-      <c r="A15" s="3" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="6">
         <v>0.8522</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>0.2907</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>25</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>20211216</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18779,7 +18844,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" spans="1:8">
+    <row r="42" s="3" customFormat="1" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>72</v>
       </c>
@@ -18794,8 +18859,11 @@
       <c r="H42" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="I42" s="3">
+        <v>200</v>
+      </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
         <v>72</v>
       </c>
@@ -18809,60 +18877,329 @@
       <c r="H43" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="I43" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="1:9">
+      <c r="A44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D44" s="5"/>
+      <c r="E44" s="4">
+        <v>20210201</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="1:9">
+      <c r="A45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="5">
+        <v>84</v>
+      </c>
       <c r="D45" s="5"/>
+      <c r="E45" s="4">
+        <v>20210201</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" s="4">
+        <v>300</v>
+      </c>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="1:9">
+      <c r="A46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="5">
+        <v>9300</v>
+      </c>
       <c r="D46" s="5"/>
+      <c r="E46" s="4">
+        <v>20210201</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="4">
+        <v>300</v>
+      </c>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="1:9">
+      <c r="A47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D47" s="5"/>
+      <c r="E47" s="4">
+        <v>20210201</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="4">
+        <v>300</v>
+      </c>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="1:9">
+      <c r="A48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D48" s="5"/>
+      <c r="E48" s="4">
+        <v>20210202</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="4">
+        <v>300</v>
+      </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="1:9">
+      <c r="A49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="5">
+        <v>948</v>
+      </c>
       <c r="D49" s="5"/>
+      <c r="E49" s="4">
+        <v>20210203</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" s="4">
+        <v>300</v>
+      </c>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="1:9">
+      <c r="A50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="D50" s="5"/>
+      <c r="E50" s="4">
+        <v>20210204</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="4">
+        <v>300</v>
+      </c>
     </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="5"/>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="10">
+        <v>9367</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="4">
+        <v>20210204</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="4">
+        <v>300</v>
+      </c>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="1:9">
+      <c r="A52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D52" s="5"/>
+      <c r="E52" s="4">
+        <v>20210204</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" s="4">
+        <v>300</v>
+      </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="1:9">
+      <c r="A53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="D53" s="5"/>
+      <c r="E53" s="4">
+        <v>20210204</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53" s="4">
+        <v>220</v>
+      </c>
     </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="5"/>
+    <row r="54" spans="1:9">
+      <c r="A54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="10">
+        <v>9576</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="4">
+        <v>20210205</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" s="4">
+        <v>220</v>
+      </c>
     </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="5"/>
+    <row r="55" spans="1:9">
+      <c r="A55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="10">
+        <v>9467</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="4">
+        <v>20210205</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" s="4">
+        <v>220</v>
+      </c>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="1:9">
+      <c r="A56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="5">
+        <v>92</v>
+      </c>
       <c r="D56" s="5"/>
+      <c r="E56" s="4">
+        <v>20210205</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="4">
+        <v>220</v>
+      </c>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="1:9">
+      <c r="A57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D57" s="5"/>
+      <c r="E57" s="4">
+        <v>20210206</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="5"/>
+    <row r="58" spans="1:9">
+      <c r="A58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="10">
+        <v>9200</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="4">
+        <v>20210206</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="4">
+        <v>220</v>
+      </c>
     </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="5"/>
+    <row r="59" spans="1:9">
+      <c r="A59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="10">
+        <v>9576</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="4">
+        <v>20210207</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" s="4" customFormat="1" spans="1:9">
+      <c r="A60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="10">
+        <v>9588</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="4">
+        <v>20210207</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:K5">
     <sortCondition ref="B2" descending="1"/>
   </sortState>
-  <mergeCells count="41">
+  <mergeCells count="42">
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
@@ -18904,6 +19241,7 @@
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
